--- a/excel/7.xlsx
+++ b/excel/7.xlsx
@@ -1085,7 +1085,7 @@
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>运输项目管理与评估孙彦明,张传明 (2-5,7-11周) 交通运输2019-1-2</t>
+          <t>运输项目管理与评估孙彦明 (2-5,7-11周) 交通运输2019-1-2</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr"/>
@@ -1160,7 +1160,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>材料力学性能李敏 (2-10周) 金属材料工程2019-3</t>
+          <t>材料力学性能李敏 (2-3,5-10周) 金属材料工程2019-3</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>材料力学性能李敏 (2-10周) 金属材料工程2019-1-2</t>
+          <t>材料力学性能李敏 (2-3,5-10周) 金属材料工程2019-1-2</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1267,12 +1267,16 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>电动汽车设计李玉善,刘宗锋 (1-8周) 车辆工程2018-1-4</t>
+          <t>电动汽车设计李玉善 (1-2,4-8周) 车辆工程2018-1-4</t>
         </is>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>普通化学（B）陈伟 (4-11周) 地质工程2021-1-2</t>
+        </is>
+      </c>
       <c r="S7" t="inlineStr">
         <is>
           <t>供应链管理李美燕 (4-15周) 工业工程2018-1-3</t>
@@ -1291,7 +1295,7 @@
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr">
         <is>
-          <t>电动汽车设计李玉善,刘宗锋 (1-8周) 车辆工程2018-1-4</t>
+          <t>电动汽车设计李玉善 (1-8周) 车辆工程2018-1-4</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
@@ -1353,7 +1357,7 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>运输经济学孙彦明,王超 (2-5,7-11周) 交通运输2019-1-2</t>
+          <t>运输经济学孙彦明 (2-5,7-11周) 交通运输2019-1-2</t>
         </is>
       </c>
       <c r="M8" t="inlineStr"/>
@@ -1370,7 +1374,7 @@
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>液压、液力与气压传动刘俊龙,刘宗锋 (1-9周) 车辆工程2019-1-3</t>
+          <t>液压、液力与气压传动刘俊龙 (1-9周) 车辆工程2019-1-3</t>
         </is>
       </c>
       <c r="R8" t="inlineStr"/>
@@ -1387,14 +1391,14 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr">
         <is>
-          <t>运输经济学孙彦明,王超 (2-5,7-11周) 交通运输2019-1-2</t>
+          <t>运输经济学孙彦明 (2-5,7-11周) 交通运输2019-1-2</t>
         </is>
       </c>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>液压、液力与气压传动刘俊龙,刘宗锋 (1-9周) 车辆工程2019-1-3</t>
+          <t>液压、液力与气压传动刘俊龙 (1-9周) 车辆工程2019-1-3</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr"/>
@@ -1607,7 +1611,7 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础徐玉明 (4-15周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
+          <t>思想道德与法治徐玉明 (4-15周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
         </is>
       </c>
       <c r="U10" t="inlineStr"/>
@@ -1720,7 +1724,7 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础郗凤芹 (4-15周) 国际经济与贸易2021-1-2班,会计学2021-1-2</t>
+          <t>思想道德与法治郗凤芹 (4-15周) 国际经济与贸易2021-1-2班,会计学2021-1-2</t>
         </is>
       </c>
       <c r="U11" t="inlineStr"/>
@@ -1881,7 +1885,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>车辆动力学基础杜现斌,王强 (2-9周) 车辆工程2018-1-4</t>
+          <t>车辆动力学基础杜现斌 (2-9周) 车辆工程2018-1-4</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1907,7 +1911,7 @@
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>车辆动力学基础杜现斌,王强 (2-9周) 车辆工程2018-1-4</t>
+          <t>车辆动力学基础杜现斌 (2-9周) 车辆工程2018-1-4</t>
         </is>
       </c>
       <c r="R13" t="inlineStr"/>
@@ -1925,7 +1929,7 @@
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr">
         <is>
-          <t>应用统计学(A)马媛 (1-8周) 工商管理2019-1-2</t>
+          <t>应用统计学(A)马媛 (1,3-8周) 工商管理2019-1-2</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
@@ -2010,7 +2014,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础徐玉明 (4-15周) 地质工程2021-1-3</t>
+          <t>思想道德与法治徐玉明 (4-15周) 地质工程2021-1-3</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2056,7 +2060,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础徐玉明 (4-15周) 地质工程2021-1-3</t>
+          <t>思想道德与法治徐玉明 (4-15周) 地质工程2021-1-3</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2109,7 +2113,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>采矿科学与技术（双语）蒋力帅 (1-9周) 采矿工程2018-1-2</t>
+          <t>采矿科学与技术（双语）蒋力帅 (1-2,4-9周) 采矿工程2018-1-2</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -2240,7 +2244,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>工程测试技术基础隋秀华 (2-10周) 机械设计制造及其自动化2019-1-3</t>
+          <t>工程测试技术基础隋秀华 (2,4-10周) 机械设计制造及其自动化2019-1-3</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
@@ -2305,7 +2309,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>工程测试技术基础隋秀华 (2-10周) 机械设计制造及其自动化2019-1-3</t>
+          <t>工程测试技术基础隋秀华 (2,4-10周) 机械设计制造及其自动化2019-1-3</t>
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
@@ -2374,11 +2378,7 @@
           <t>专业导论*韩永芹 (4-11周) 高分子材料与工程2021-1-3</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>地球化学陈桥 (1-8周) 地质工程2019-1-3</t>
-        </is>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>突发事件案例分析杨文宇 (5-9周) 安全工程（应急管理方向）2019</t>
+          <t>突发事件案例分析董晓素 (5-9周) 安全工程（应急管理方向）2019</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论冯丽华 (1-12周) 工程力学2020-1-2班,工业工程2020-1-2</t>
+          <t>马克思主义基本原理冯丽华 (1-12周) 工程力学2020-1-2班,工业工程2020-1-2</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础高华 (4-15周) 机械电子工程2021-4-6</t>
+          <t>思想道德与法治高华 (4-15周) 机械电子工程2021-4-6</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
@@ -3138,12 +3138,12 @@
       <c r="AA25" t="inlineStr"/>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>数据库技术基础张永华 (1-8周) 临班77</t>
+          <t>数据库技术基础张永华 (1-2,4-8周) 临班77</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>数据库技术基础张永华 (1-8周) 临班77</t>
+          <t>数据库技术基础张永华 (1-2,4-8周) 临班77</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr"/>
@@ -3606,11 +3606,7 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
-        </is>
-      </c>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
           <t>几何量公差与检测戴向云 (2-9周) 机械设计制造及其自动化2019-1-3</t>
@@ -3798,7 +3794,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>突发事件案例分析刘义鑫 (6-9周) 安全工程（应急管理方向）2018</t>
+          <t>突发事件案例分析董晓素 (6-9周) 安全工程（应急管理方向）2018</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -3937,7 +3933,7 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论冯丽华 (1-12周) 工程力学2020-1-2班,工业工程2020-1-2</t>
+          <t>马克思主义基本原理冯丽华 (1-12周) 工程力学2020-1-2班,工业工程2020-1-2</t>
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
@@ -4018,7 +4014,7 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>运筹学（B）庄晓雯 (1-13周) 工商管理2019-2</t>
+          <t>运筹学（B）庄晓雯 (2-13周) 工商管理2019-2</t>
         </is>
       </c>
       <c r="T34" t="inlineStr"/>
@@ -4081,7 +4077,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论贾强,张蕾 (1-12周) 机械设计制造及其自动化2020-1-4</t>
+          <t>马克思主义基本原理贾强,张蕾 (1-12周) 机械设计制造及其自动化2020-1-4</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -4161,7 +4157,7 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础杜萍萍 (4-15周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
+          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -4191,7 +4187,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础高华 (4-15周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+          <t>思想道德与法治高华 (4-15周) 工程力学2021-1-2班,工业工程2021-1-2</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -4213,7 +4209,7 @@
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
+          <t>马克思主义基本原理尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
         </is>
       </c>
       <c r="U36" t="inlineStr"/>
@@ -4295,11 +4291,7 @@
           <t>大学英语（A)(2-1)刘海英 (4-19周) 机械电子工程2021-4</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>地质学基础宋志刚,赵秀丽 (4-15周) 勘查技术与工程2021-2</t>
-        </is>
-      </c>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
@@ -4364,7 +4356,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论吴华眉 (1-12周) 测绘工程2020-5班,遥感科学与技术2020-1-3</t>
+          <t>马克思主义基本原理吴华眉 (1-12周) 测绘工程2020-5班,遥感科学与技术2020-1-3</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -4394,7 +4386,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论刘丽威 (1-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
+          <t>马克思主义基本原理刘丽威 (1-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
         </is>
       </c>
       <c r="P38" t="inlineStr"/>
@@ -4428,7 +4420,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础高华 (4-15周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+          <t>思想道德与法治高华 (4-15周) 工程力学2021-1-2班,工业工程2021-1-2</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr"/>
@@ -5988,7 +5980,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>地质学基础宋志刚,赵秀丽 (4-15周) 勘查技术与工程2021-2</t>
+          <t>地质学基础宋志刚,赵延洋 (4-15周) 勘查技术与工程2021-2</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -5996,11 +5988,7 @@
           <t>电工电子技术（B）王亚群 (1-12周) 安全工程2020-4-5</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
-        </is>
-      </c>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
@@ -6645,7 +6633,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
+          <t>马克思主义基本原理尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -6661,7 +6649,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论魏丽萍 (1-12周) 物流管理2020-1-2班,国际经济与贸易2020-1-2</t>
+          <t>马克思主义基本原理魏丽萍 (1-12周) 物流管理2020-1-2班,国际经济与贸易2020-1-2</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -6679,7 +6667,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础杜萍萍 (4-15周) 测绘工程2021-1-4</t>
+          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-1-4</t>
         </is>
       </c>
       <c r="P63" t="inlineStr"/>
@@ -6691,12 +6679,12 @@
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论王建志 (1-12周) 金融学2020-1-2班,会计学2020-1-2</t>
+          <t>马克思主义基本原理王建志 (1-12周) 金融学2020-1-2班,会计学2020-1-2</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础杜萍萍 (4-15周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
+          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
@@ -6717,7 +6705,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础杜萍萍 (4-15周) 测绘工程2021-1-4</t>
+          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-1-4</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr"/>
@@ -6836,7 +6824,11 @@
           <t>地统计学概论孔冬贤 (4-11周) 遥感科学与技术2019-1-3</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>采矿学黄万朋 (1-8周) 采矿工程（智能开采方向）2019-2</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
           <t>遥感数字图像处理蔡玉林 (3-13周) 地理信息科学2019-1-2</t>
@@ -6931,7 +6923,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>专业英语赵俐红 (4-11周) 勘查技术与工程2018-1-2</t>
+          <t>专业英语赵俐红 (5-11周) 勘查技术与工程2018-1-2</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -7052,7 +7044,7 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>岩浆岩岩石学王淞杰 (2-7周) 资源勘查工程2020-2</t>
+          <t>岩浆岩岩石学王淞杰 (2-3,5,7周) 资源勘查工程2020-2</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -7835,11 +7827,7 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>微生物学韩秋霞 (2-7,10-14周) 生物工程2019-1</t>
-        </is>
-      </c>
+      <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
           <t>分子生物学吕英海 (1-7,10-11周) 生物工程2019-1</t>
@@ -7852,11 +7840,7 @@
       </c>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>微生物学韩秋霞 (2-7,10-14单周) 生物工程2019-1</t>
-        </is>
-      </c>
+      <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr">
         <is>
           <t>化工原理(2-2)马艺心 (1-7,10-11周) 生物工程2019-1</t>
@@ -8793,7 +8777,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-2）徐岩 (1-4,6-13周) 采矿工程（宋振骐班）</t>
+          <t>大学物理（B）（2-2）张艳亮 (1-4,6-13周) 采矿工程（宋振骐班）</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
@@ -8811,14 +8795,10 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-2）徐岩 (1-4,6-13周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)张兴梅 (4-19周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
+          <t>大学物理（B）（2-2）张艳亮 (1-4,6-13周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
@@ -8832,11 +8812,7 @@
       <c r="U89" t="inlineStr"/>
       <c r="V89" t="inlineStr"/>
       <c r="W89" t="inlineStr"/>
-      <c r="X89" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)张兴梅 (4-19周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
+      <c r="X89" t="inlineStr"/>
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr"/>
       <c r="AA89" t="inlineStr"/>
@@ -8870,7 +8846,11 @@
           <t>采矿学李占海 (1-11周) 采矿工程2019-1-2</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
+        </is>
+      </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
@@ -8890,13 +8870,21 @@
           <t>构造地质学程燕君 (4-13周) 资源勘查工程2019-3</t>
         </is>
       </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
+        </is>
+      </c>
       <c r="N90" t="inlineStr">
         <is>
           <t>采矿学李占海 (1-11周) 采矿工程2019-1-2</t>
         </is>
       </c>
-      <c r="O90" t="inlineStr"/>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>地质学基础宋志刚,赵延洋 (4-15周) 勘查技术与工程2021-2</t>
+        </is>
+      </c>
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr">
         <is>

--- a/excel/7.xlsx
+++ b/excel/7.xlsx
@@ -922,7 +922,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>绿色开采技术郭忠平 (6-10周) 采矿工程2018-1-3</t>
+          <t>绿色开采技术郭忠平 (7-10周) 采矿工程2018-1-3</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -969,11 +969,7 @@
       </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>结构设计原理孙宗军 (7-8周) 交通工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
@@ -1010,7 +1006,11 @@
           <t>应用统计学（C）赵峰 (1-8周) 电子商务2019-1-2</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>水文地质学尹会永 (4-9周) 资源勘查工程2019-1-3</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>材料力学性能李敏 (2-10周) 金属材料工程2019-1-2</t>
+          <t>材料力学性能李敏 (2-7,9-10周) 金属材料工程2019-1-2</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>材料力学性能李敏 (2-3,5-10周) 金属材料工程2019-1-2</t>
+          <t>材料力学性能李敏 (2-3,5-9周) 金属材料工程2019-1-2</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1189,7 +1189,7 @@
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr">
         <is>
-          <t>粉末冶金学谢鲲 (1-8周) 金属材料工程2018-1-3</t>
+          <t>粉末冶金学谢鲲 (1-7周) 金属材料工程2018-1-3</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>材料力学性能李敏 (2-10周) 金属材料工程2019-3</t>
+          <t>材料力学性能李敏 (2-7,9-10周) 金属材料工程2019-3</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr"/>
@@ -1308,7 +1308,11 @@
           <t>专业英语杨坤 (1-8周) 工程力学2018-1-3</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>计算机地质绘图王其芳 (4-9周) 资源勘查工程2019-1-3</t>
+        </is>
+      </c>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
@@ -1368,7 +1372,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>工程测量景冬 (1-9周) 采矿工程（智能开采方向）2019-2</t>
+          <t>工程测量景冬 (1-7,9周) 采矿工程（智能开采方向）2019-2</t>
         </is>
       </c>
       <c r="P8" t="inlineStr"/>
@@ -1405,12 +1409,12 @@
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>中级财务会计（II）郝敏 (1-12周) 会计学(辅修) 2019版</t>
+          <t>中级财务会计（II）郝敏 (1-2,4-12周) 会计学(辅修) 2019版</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>中级财务会计（II）郝敏 (1-12周) 会计学(辅修) 2019版</t>
+          <t>中级财务会计（II）郝敏 (1-2,4-12周) 会计学(辅修) 2019版</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -1426,12 +1430,12 @@
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>应用统计学陶敏 (4-14周) 国际经济与贸易(辅修)2020-1</t>
+          <t>应用统计学陶敏 (5-14周) 国际经济与贸易(辅修)2020-1</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>应用统计学陶敏 (4-14周) 国际经济与贸易(辅修)2020-1</t>
+          <t>应用统计学陶敏 (5-14周) 国际经济与贸易(辅修)2020-1</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -1560,7 +1564,11 @@
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>高等数学（A）（2-1）李 刚(sx) (7周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
           <t>MATLAB与应用张蕾 (3-12周) 地理信息科学2019-1-3</t>
@@ -1662,17 +1670,9 @@
           <t>地震勘探原理林年添 (2-10周) 勘查技术与工程2019-1-2</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>岩土工程勘察尹会永 (5-14周) 地质工程2018-2</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>水文地质学尹会永 (4-9周) 资源勘查工程2019-1-3</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
           <t>计算机地质绘图王其芳 (4-9周) 资源勘查工程2019-1-3</t>
@@ -1696,11 +1696,7 @@
           <t>地震勘探原理林年添 (2-10周) 勘查技术与工程2019-1-2</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>岩土工程勘察尹会永 (5-14周) 地质工程2018-2</t>
-        </is>
-      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1890,7 +1886,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>证券投资学周衍平 (1-9周) 投资学2019-1-2</t>
+          <t>证券投资学周衍平 (1-4,6-9周) 投资学2019-1-2</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1940,8 +1936,16 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>微观经济学（A）焦习燕 (7周) 国际经济与贸易(辅修)2020-1</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>微观经济学（A）焦习燕 (7周) 国际经济与贸易(辅修)2020-1</t>
+        </is>
+      </c>
       <c r="AD13" t="inlineStr">
         <is>
           <t>国际商务谈判姜秀娟 (4-11周) 国际经济与贸易(辅修)2020</t>
@@ -1980,7 +1984,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)杨明 (4-19周) 地质工程2021-1</t>
+          <t>大学英语（A)(2-1)杨明 (4-18周) 地质工程2021-1</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1996,7 +2000,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)王惠 (4-19周) 采矿工程2021-1</t>
+          <t>大学英语（A)(2-1)王惠 (4-18周) 采矿工程2021-1</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -2004,7 +2008,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)杨明 (4-19周) 地质工程2021-1</t>
+          <t>大学英语（A)(2-1)杨明 (4-18周) 地质工程2021-1</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -2034,7 +2038,7 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>地球物理反演理论与方法崔岩 (4-11周) 勘查技术与工程2018-1-2</t>
+          <t>地球物理反演理论与方法崔岩 (4-11周) 勘查技术与工程2018-1-2 铸造工艺学王淑峰 (7单周) 金属材料工程2018-1-3</t>
         </is>
       </c>
       <c r="T14" t="inlineStr"/>
@@ -2190,7 +2194,11 @@
           <t>J14-211室</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-1)孔昭莉 (4-18周) 地质工程2021-2</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
@@ -2234,7 +2242,11 @@
           <t>机械振动与噪声控制牟鸣飞 (7-15周) 能源与动力工程2019-1-3</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr"/>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>构造地质学张丽萍 (7周) 勘查技术与工程2019-1-2</t>
+        </is>
+      </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr">
@@ -2295,7 +2307,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>构造地质学张丽萍 (1-8周) 勘查技术与工程2019-1-2</t>
+          <t>构造地质学张丽萍 (1-5,7-8周) 勘查技术与工程2019-1-2</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -2468,7 +2480,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)陈昕 (4-19周) 资源勘查工程2021-1</t>
+          <t>大学英语（A)(2-1)陈昕 (4-18周) 资源勘查工程2021-1</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2602,7 +2614,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>计算机程序设计（C语言）张涛 (7-14周) 资源勘查工程2020-1-3</t>
+          <t>计算机程序设计（C语言）张涛 (7-10,12-14周) 资源勘查工程2020-1-3</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -2675,7 +2687,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>概率论与数理统计黄珍 (1-12周) 测绘工程2020-4-5</t>
+          <t>概率论与数理统计黄珍 (1-3,5-12周) 测绘工程2020-4-5</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -2687,7 +2699,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)谭剑鸣 (4-19周) 机械电子工程2021-6</t>
+          <t>大学英语（A)(2-1)谭剑鸣 (4-18周) 机械电子工程2021-6</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2697,7 +2709,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)郭放 (4-19周) 地理信息科学2021-3</t>
+          <t>大学英语（A)(2-1)郭放 (4-18周) 地理信息科学2021-3</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
@@ -2912,16 +2924,8 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>管理学（B） 田莹 (1-3,7-12周) 机械电子工程2018-1-3</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>管理学（B） 田莹 (1-3,7-12周) 机械电子工程2018-4-5</t>
-        </is>
-      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -2929,20 +2933,12 @@
           <t>分子生物学高中政 (1-7,10-11周) 生物工程2019-2</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>管理学（B） 田莹 (1-3,7-12周) 机械电子工程2018-4-5</t>
-        </is>
-      </c>
+      <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>管理学（B） 田莹 (1-3,7-12周) 机械电子工程2018-1-3</t>
-        </is>
-      </c>
+      <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
@@ -3070,7 +3066,11 @@
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>大学生心理健康教育薄艳艳,牟杰 (4-11周) 地质工程2021-1-3班,勘查技术与工程2021-2</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr">
         <is>
           <t>工程地质专业英语张鹏飞 (1-8周) 地质工程2019-1</t>
@@ -3121,7 +3121,11 @@
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>大学生心理健康教育薄艳艳,牟杰 (4-11周) 地质工程2021-1-3班,勘查技术与工程2021-2</t>
+        </is>
+      </c>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr">
         <is>
@@ -3130,7 +3134,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)翟清永 (4-19周) 遥感科学与技术2021-1</t>
+          <t>大学英语（A)(2-1)翟清永 (4-18周) 遥感科学与技术2021-1</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr"/>
@@ -3138,12 +3142,12 @@
       <c r="AA25" t="inlineStr"/>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>数据库技术基础张永华 (1-2,4-8周) 临班77</t>
+          <t>数据库技术基础张永华 (1-2,4-5,7-8周) 临班77</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>数据库技术基础张永华 (1-2,4-8周) 临班77</t>
+          <t>数据库技术基础张永华 (1-2,4-5,7-8周) 临班77</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr"/>
@@ -3166,7 +3170,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>无机材料生产设备王相南 (5-8周) 无机非金属材料工程2018</t>
+          <t>无机材料生产设备王相南 (5,7-8周) 无机非金属材料工程2018</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -3223,7 +3227,7 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>无机材料生产设备王相南 (5-8周) 无机非金属材料工程2018</t>
+          <t>无机材料生产设备王相南 (6-8周) 无机非金属材料工程2018</t>
         </is>
       </c>
       <c r="U26" t="inlineStr"/>
@@ -3381,7 +3385,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>物理化学杨静 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学杨静 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -3419,7 +3423,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>物理化学杨静 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学杨静 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -3480,11 +3484,7 @@
           <t>线性代数李刚 (1-11周) 资源勘查工程2020-1-3</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>制图基础（A）戚美 (4-15周) 能源与动力工程2021-1-3</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -3495,7 +3495,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)张兴梅 (4-19周) 勘查技术与工程2021-1</t>
+          <t>大学英语（A)(2-1)张兴梅 (4-18周) 勘查技术与工程2021-1</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -3527,11 +3527,7 @@
           <t>高等数学（A）（2-1）付余 (4-19周) 机械电子工程2021-4-6</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>制图基础（A）戚美 (4-15周) 能源与动力工程2021-1-3</t>
-        </is>
-      </c>
+      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr">
         <is>
           <t>地下水动力学王敏 (2-12周) 水文与水资源工程2019-1-2</t>
@@ -3550,7 +3546,7 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)李美 (4-19周) 遥感科学与技术2021-2</t>
+          <t>大学英语（A)(2-1)李美 (4-18周) 遥感科学与技术2021-2</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr"/>
@@ -3638,7 +3634,7 @@
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr">
         <is>
-          <t>工程测量景冬 (1-9周) 采矿工程（智能开采方向）2019-2</t>
+          <t>工程测量景冬 (1-7,9周) 采矿工程（智能开采方向）2019-2</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
@@ -3680,12 +3676,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>外贸英文函电于晓燕 (1-9周) 国际经济与贸易2019-1-2</t>
+          <t>外贸英文函电于晓燕 (1-5,7-9周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>商务英语口语于晓燕 (1-9周) 国际经济与贸易2019-1-2</t>
+          <t>商务英语口语于晓燕 (1-5,7-9周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -3722,7 +3718,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>国际金融孙江永 (1-9周) 国际经济与贸易2019-1-2</t>
+          <t>国际服务贸易李丽丽 (5-9周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -3735,7 +3731,11 @@
           <t>商务英语口语于晓燕 (1-9周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
-      <c r="U31" t="inlineStr"/>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>商务英语口语于晓燕 (7周) 国际经济与贸易2019-1-2</t>
+        </is>
+      </c>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>国际服务贸易李丽丽 (1-9周) 国际经济与贸易2019-1-2</t>
+          <t>国际金融孙江永 (5-9周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr"/>
@@ -3761,7 +3761,7 @@
       <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>会计信息系统刘超 (6-19周) 会计学(辅修) 2019版</t>
+          <t>会计信息系统刘超 (6-18周) 会计学(辅修) 2019版</t>
         </is>
       </c>
       <c r="AH31" t="inlineStr"/>
@@ -4072,7 +4072,7 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>沉积岩岩石学韩作振 (6-13周) 资源勘查工程2020-1</t>
+          <t>沉积岩岩石学韩作振 (6-11,13周) 资源勘查工程2020-1</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -4099,13 +4099,13 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>构造地质学金爱文 (1-10周) 资源勘查工程（海洋矿产资源方向）2019</t>
+          <t>构造地质学金爱文 (1-8,10周) 资源勘查工程（海洋矿产资源方向）2019</t>
         </is>
       </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>岩石学樊爱萍,杨仁超 (1-8周) 地质工程2020-2</t>
+          <t>岩石学樊爱萍,杨仁超 (1-4,6-7周) 地质工程2020-2</t>
         </is>
       </c>
       <c r="R35" t="inlineStr"/>
@@ -4129,11 +4129,7 @@
       </c>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr">
-        <is>
-          <t>沉积环境与沉积相杨仁超 (4-9周) 资源勘查工程（海洋矿产资源方向）2019</t>
-        </is>
-      </c>
+      <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="inlineStr"/>
       <c r="AC35" t="inlineStr"/>
       <c r="AD35" t="inlineStr"/>
@@ -4196,7 +4192,11 @@
         </is>
       </c>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>高等数学（A）（2-1）李 刚(sx) (7周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
+        </is>
+      </c>
       <c r="R36" t="inlineStr">
         <is>
           <t>线性代数张伟伟 (1-11周) 金融学2020-1-2班,会计学2020-1-2</t>
@@ -4204,7 +4204,7 @@
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
+          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
@@ -4220,17 +4220,17 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
+          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
+          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>中国近现代史纲要叶小青 (4-15周) 材料化学2021-1-2班,新能源材料与器件2021-1-2</t>
+          <t>中国近现代史纲要叶小青 (4-7,9-15周) 材料化学2021-1-2班,新能源材料与器件2021-1-2</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr"/>
@@ -4258,7 +4258,7 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)李燕妮 (4-19周) 机械电子工程2021-2</t>
+          <t>大学英语（A)(2-1)李燕妮 (4-10,12-18周) 机械电子工程2021-2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -4283,12 +4283,12 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)徐科吉 (4-19周) 高分子材料与工程2021-3</t>
+          <t>大学英语（A)(2-1)徐科吉 (4-10,12-18周) 高分子材料与工程2021-3</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)刘海英 (4-19周) 机械电子工程2021-4</t>
+          <t>大学英语（A)(2-1)刘海英 (4-18周) 机械电子工程2021-4</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -4314,7 +4314,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)刘海英 (4-19周) 机械电子工程2021-4</t>
+          <t>大学英语（A)(2-1)刘海英 (4-18周) 机械电子工程2021-4</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4386,14 +4386,14 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>马克思主义基本原理刘丽威 (1-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
+          <t>马克思主义基本原理刘丽威 (1-4,6-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
         </is>
       </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
+          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>测井地质学杨思通,张涛 (4-12周) 资源勘查工程2018-1-3</t>
+          <t>测井地质学杨思通,张涛 (4-10,12周) 资源勘查工程2018-1-3</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
@@ -4569,7 +4569,7 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>金属塑性成形原理刘杰 (5-12周) 材料成型及控制工程2019-1-2</t>
+          <t>金属塑性成形原理刘杰 (5-8,10-12周) 材料成型及控制工程2019-1-2</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -4599,7 +4599,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>金属塑性成形原理刘杰 (5-12周) 材料成型及控制工程2019-1-2</t>
+          <t>金属塑性成形原理刘杰 (5-8,10-12周) 材料成型及控制工程2019-1-2</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -4670,7 +4670,7 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>物理化学孙记夫 (4-19周) 矿物加工工程2020-1-3</t>
+          <t>物理化学孙记夫 (4-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -4713,7 +4713,7 @@
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr">
         <is>
-          <t>机械原理（A）魏军英 (5-15周) 材料成型及控制工程2019-1-2</t>
+          <t>机械原理（A）魏军英 (5-7,9-15周) 材料成型及控制工程2019-1-2</t>
         </is>
       </c>
       <c r="X41" t="inlineStr"/>
@@ -4772,11 +4772,7 @@
         </is>
       </c>
       <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>工程测量翟敏 (1-9周) 采矿工程2019-4</t>
-        </is>
-      </c>
+      <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
@@ -4883,7 +4879,7 @@
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr">
         <is>
-          <t>采矿科学与技术（双语）蒋力帅 (1-9周) 采矿工程2018-1-2</t>
+          <t>采矿科学与技术（双语）蒋力帅 (1-3,5-9周) 采矿工程2018-1-2</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
@@ -5004,10 +5000,14 @@
           <t>工程热力学与传热学董晓素 (1-12周) 安全工程2020-5</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>岩土工程勘察尹会永 (5-14周) 地质工程2018-2</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>环境工程微生物（双语）高宇 (1-9周) 环境工程2019-3</t>
+          <t>环境工程微生物（双语）高宇 (1-8周) 环境工程2019-3</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -5162,7 +5162,7 @@
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr">
         <is>
-          <t>物理化学孙记夫 (4-19周) 矿物加工工程2020-1-3</t>
+          <t>物理化学孙记夫 (4-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
@@ -5303,11 +5303,7 @@
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>几何量公差孙静 (1-9周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
           <t>过程装备密封技术李晓宇 (3-10周) 过程装备与控制工程2018-1-3</t>
@@ -5333,11 +5329,7 @@
       </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>几何量公差孙静 (1-9周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr">
         <is>
           <t>装备的失效分析王凤芹 (3-10周) 过程装备与控制工程2018-1-3</t>
@@ -5616,7 +5608,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>铸造工艺学王淑峰 (1-8周) 金属材料工程2018-1-3</t>
+          <t>铸造工艺学王淑峰 (1-5,7-8周) 金属材料工程2018-1-3</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -5685,7 +5677,7 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>材料科学基础张芬 (7-16周) 材料化学2019-1-2</t>
+          <t>材料科学基础张芬 (7-12,14-16周) 材料化学2019-1-2</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr"/>
@@ -5824,7 +5816,7 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>高分子化学韩永芹 (1-9周) 材料化学2019-1-2</t>
+          <t>高分子化学韩永芹 (1-8周) 材料化学2019-1-2</t>
         </is>
       </c>
       <c r="N54" t="inlineStr"/>
@@ -5900,7 +5892,7 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>物理化学黄永清 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学黄永清 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -5910,10 +5902,14 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>构造地质学孟元库 (7周) 资源勘查工程2019-1</t>
+        </is>
+      </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>无机化学付民 (4-19周) 应用化学2021-1</t>
+          <t>无机化学付民 (4-18周) 应用化学2021-1</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -5930,7 +5926,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>物理化学黄永清 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学黄永清 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -5992,7 +5988,7 @@
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>普通地质学张丽萍 (4-11周) 水文与水资源工程2021-1</t>
+          <t>普通地质学张丽萍 (4-5,7-11周) 水文与水资源工程2021-1</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -6002,7 +5998,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>会计学(B)刘英姿 (1-8周) 工商管理2020-1-2</t>
+          <t>会计学(B)刘英姿 (1-7周) 工商管理2020-1-2</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -6011,7 +6007,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)王惠 (4-19周) 应用化学2021-1</t>
+          <t>大学英语（A)(2-1)王惠 (4-18周) 应用化学2021-1</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -6025,11 +6021,7 @@
           <t>专业英语张军建,郑雪 (4-13周) 资源勘查工程（海洋矿产资源方向）2019</t>
         </is>
       </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)李恒 (4-19周) 勘查技术与工程2021-2</t>
-        </is>
-      </c>
+      <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr">
         <is>
           <t>会计学(B)刘英姿 (1-8周) 工商管理2020-1-2</t>
@@ -6302,11 +6294,7 @@
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t>生产计划与管理 田莹 (1-2,7-12周) 机械设计制造及其自动化2018-1-3</t>
-        </is>
-      </c>
+      <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
       <c r="W59" t="inlineStr">
@@ -6319,11 +6307,7 @@
           <t>生产计划与管理张国松 (1-2,7-12周) 机械设计制造及其自动化2018-4-5</t>
         </is>
       </c>
-      <c r="Y59" t="inlineStr">
-        <is>
-          <t>生产计划与管理 田莹 (1-2,7-12周) 机械设计制造及其自动化2018-1-3</t>
-        </is>
-      </c>
+      <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr"/>
       <c r="AA59" t="inlineStr"/>
       <c r="AB59" t="inlineStr"/>
@@ -6378,7 +6362,7 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)李美 (4-19周) 遥感科学与技术2021-2</t>
+          <t>大学英语（A)(2-1)李美 (4-18周) 遥感科学与技术2021-2</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -6393,11 +6377,7 @@
       </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>工程力学邱月 (7-18周) 金属材料工程2020-3-4</t>
-        </is>
-      </c>
+      <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr">
         <is>
           <t>财务分析赵桐 (1-9周) 会计学2019-2</t>
@@ -6544,7 +6524,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)翟清永 (4-19周) 遥感科学与技术2021-1</t>
+          <t>大学英语（A)(2-1)翟清永 (4-18周) 遥感科学与技术2021-1</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -6577,11 +6557,7 @@
           <t>大学英语（A)(2-1)赵善青 (4-19周) 测绘工程2021-3</t>
         </is>
       </c>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t>国际经济法学韩天竹,牛哲莉 (1-16周) 法学2019-1-3</t>
-        </is>
-      </c>
+      <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr">
@@ -6628,7 +6604,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>构造地质学金爱文 (1-10周) 资源勘查工程（海洋矿产资源方向）2019</t>
+          <t>构造地质学金爱文 (1-8,10周) 资源勘查工程（海洋矿产资源方向）2019</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -6733,7 +6709,7 @@
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>岩体力学张伟杰 (3-8周) 地质工程2019-1-2</t>
+          <t>岩体力学张伟杰 (3-5,7-8周) 地质工程2019-1-2</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -6758,7 +6734,7 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)姜妮 (4-19周) 地理信息科学2021-2</t>
+          <t>大学英语（A)(2-1)姜妮 (4-18周) 地理信息科学2021-2</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -6788,14 +6764,10 @@
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)姜妮 (4-19周) 地理信息科学2021-2</t>
-        </is>
-      </c>
-      <c r="X64" t="inlineStr">
-        <is>
-          <t>构造地质学张丽萍 (1-8周) 勘查技术与工程2019-1-2</t>
-        </is>
-      </c>
+          <t>大学英语（A)(2-1)姜妮 (4-18周) 地理信息科学2021-2</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr"/>
       <c r="AA64" t="inlineStr"/>
@@ -6836,7 +6808,11 @@
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>思想道德与法治徐玉明 (4-15周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
+        </is>
+      </c>
       <c r="I65" t="inlineStr">
         <is>
           <t>大地测量学基础郭金运 (1-14周) 测绘工程2019-3</t>
@@ -7023,7 +6999,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>普通地质学王泽利 (4-15周) 资源勘查工程2021-2</t>
+          <t>普通地质学王泽利 (4-10,12-15周) 资源勘查工程2021-2</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -7234,7 +7210,11 @@
           <t>有机化学（2-2）高登征 (1-8周) 生物工程2020-1-2</t>
         </is>
       </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>岩土工程勘察尹会永 (5-14周) 地质工程2018-2</t>
+        </is>
+      </c>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
@@ -7418,7 +7398,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>水灾害防治魏久传 (6-13周) 水文与水资源工程2018-2</t>
+          <t>水灾害防治魏久传 (6-12周) 水文与水资源工程2018-2</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -7622,7 +7602,7 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>物理化学孔霞 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学孔霞 (4-12,14-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -7816,12 +7796,12 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>物理化学赵沛文 (4-19周) 矿物加工工程2020-1-3</t>
+          <t>物理化学赵沛文 (4-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>化工仪表及自动化牛海丽 (1-7,10周) 生物工程2019-1-2</t>
+          <t>化工仪表及自动化牛海丽 (1-3,5-7,10周) 生物工程2019-1-2</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -7851,19 +7831,19 @@
       <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr">
         <is>
-          <t>物理化学赵沛文 (4-19周) 矿物加工工程2020-1-3</t>
+          <t>物理化学赵沛文 (4-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>化工仪表及自动化牛海丽 (1-7,10周) 生物工程2019-1-2</t>
+          <t>化工仪表及自动化牛海丽 (1-4,6-7,10周) 生物工程2019-1-2</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr"/>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>无机化学付民 (4-19周) 应用化学2021-1</t>
+          <t>无机化学付民 (4-18周) 应用化学2021-1</t>
         </is>
       </c>
       <c r="AB75" t="inlineStr"/>
@@ -8855,7 +8835,7 @@
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
-          <t>构造地质学孟元库 (4-13周) 资源勘查工程2019-1</t>
+          <t>构造地质学孟元库 (4-5,7-13周) 资源勘查工程2019-1</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -8867,7 +8847,7 @@
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
-          <t>构造地质学程燕君 (4-13周) 资源勘查工程2019-3</t>
+          <t>构造地质学程燕君 (4-12周) 资源勘查工程2019-3</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -8888,12 +8868,12 @@
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>构造地质学程燕君 (4-13周) 资源勘查工程2019-3</t>
+          <t>构造地质学程燕君 (4-12周) 资源勘查工程2019-3</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>构造地质学孟元库 (4-13周) 资源勘查工程2019-1</t>
+          <t>构造地质学孟元库 (4-5,7-13周) 资源勘查工程2019-1</t>
         </is>
       </c>
       <c r="S90" t="inlineStr">
@@ -8904,7 +8884,11 @@
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr"/>
       <c r="V90" t="inlineStr"/>
-      <c r="W90" t="inlineStr"/>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>水文地质与工程地质学高宗军,张彧齐 (3-14周) 勘查技术与工程2019-1-2</t>
+        </is>
+      </c>
       <c r="X90" t="inlineStr"/>
       <c r="Y90" t="inlineStr">
         <is>

--- a/excel/7.xlsx
+++ b/excel/7.xlsx
@@ -659,8 +659,10 @@
           <t>0304</t>
         </is>
       </c>
-      <c r="J2" t="n">
-        <v>506</v>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0506</t>
+        </is>
       </c>
       <c r="K2" t="n">
         <v>708</v>
@@ -814,7 +816,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>电子商务专业英语文献阅读孙丽华 (1-9周) 电子商务2019-2</t>
+          <t>电子商务专业英语文献阅读孙丽华 (1,3-9周) 电子商务2019-2</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -886,12 +888,12 @@
           <t>通风工程李崇山 (1-8周) 安全工程2019-1-4</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>火灾事故调查杜文州 (4-11周) 安全工程2019-3-4</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>火灾事故调查孔彪 (6-7周) 安全工程2019-3-4</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
@@ -923,7 +925,7 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>火灾事故调查杜文州 (4-11周) 安全工程2019-3-4</t>
+          <t>火灾事故调查孔彪 (6-7周) 安全工程2019-3-4</t>
         </is>
       </c>
       <c r="U4" t="inlineStr"/>
@@ -992,7 +994,7 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>市场调查与预测宋平 (1-9周) 工商管理(社会体育指导与管理)2019</t>
+          <t>市场调查与预测宋平 (1,3-9周) 工商管理(社会体育指导与管理)2019</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1037,7 +1039,11 @@
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>数控技术于涛 (7周) 机械设计制造及其自动化2019-3-5</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr">
         <is>
@@ -1109,7 +1115,7 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>材料腐蚀与防护岳丽杰 (1-9周) 金属材料工程2019-1-2</t>
+          <t>材料腐蚀与防护岳丽杰 (1,3-9周) 金属材料工程2019-1-2</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1152,7 +1158,7 @@
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr">
         <is>
-          <t>海图制图王瑞富 (1-10周) 测绘工程2020-1-5</t>
+          <t>海图制图王瑞富 (1-7周) 测绘工程2020-1-5</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -1170,22 +1176,22 @@
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>中级财务会计（I）郝敏,吴文文 (1-12周) 会计学(辅修)2020</t>
+          <t>中级财务会计（I）郝敏,吴文文 (1,3-12周) 会计学(辅修)2020</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>中级财务会计（I）郝敏,吴文文 (1-12周) 会计学(辅修)2020</t>
+          <t>中级财务会计（I）郝敏,吴文文 (1,3-12周) 会计学(辅修)2020</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>应用统计学王家坤 (1-11周) 会计学(辅修)2020</t>
+          <t>应用统计学王家坤 (3-11周) 会计学(辅修)2020</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>应用统计学王家坤 (1-11周) 会计学(辅修)2020</t>
+          <t>应用统计学王家坤 (3-11周) 会计学(辅修)2020</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr"/>
@@ -1222,7 +1228,7 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>人力资源管理袁清和 (1-8周) 工业工程2020-1-2</t>
+          <t>人力资源管理袁清和 (1,3-8周) 工业工程2020-1-2</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1319,7 +1325,7 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>会计信息系统（A）崔树德 (1-14周) 会计学2019-1-2</t>
+          <t>会计信息系统（A）崔树德 (1,3-14周) 会计学2019-1-2</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1385,19 +1391,19 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>EXCEL财务应用赵桐 (1-12周) 会计学(辅修)2019</t>
+          <t>EXCEL财务应用赵桐 (1-3,5-12周) 会计学(辅修)2019</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>审计学刘英姿 (1-12周) 会计学(辅修)2019</t>
+          <t>审计学刘英姿 (1,3-12周) 会计学(辅修)2019</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>审计学刘英姿 (1-12周) 会计学(辅修)2019</t>
+          <t>审计学刘英姿 (1,3-12周) 会计学(辅修)2019</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -1560,11 +1566,7 @@
           <t>Python 程序设计刘洪强 (1-8周) 地理信息科学2019-1-3</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>工程测量学刘尚国 (1-12周) 测绘工程2019-3</t>
-        </is>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
@@ -1662,7 +1664,11 @@
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>社会主义发展史曹丙燕 (1-8周) 智能制造工程2021-1-2班,能源与动力工程2021-1-3</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>结晶学与矿物学杜龙,毛光周 (5-8周) 资源勘查工程2021-1-2</t>
@@ -1701,7 +1707,11 @@
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>社会主义发展史曹丙燕 (1-8周) 智能制造工程2021-1-2班,能源与动力工程2021-1-3</t>
+        </is>
+      </c>
       <c r="V11" t="inlineStr">
         <is>
           <t>矿相学郑雪 (3-10周) 资源勘查工程2020-1-3</t>
@@ -1906,8 +1916,16 @@
           <t>创新管理王炳成 (1-8周) 物流管理2021-1-2</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>中国文学批评史杜立新 (7周) 汉语言文学2019</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>公文写作与处理杜立新 (7周) 汉语言文学2020-1</t>
+        </is>
+      </c>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr">
@@ -2019,12 +2037,12 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-2）宋治涛 (1-14周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
+          <t>Python 程序设计刘洪强 (1-9周) 地理信息科学2019-1-3</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-2）宋治涛 (1-14周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+          <t>误差理论与测量平差基础刘国林 (1-8周) 遥感科学与技术2020-3</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -2187,11 +2205,7 @@
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>液压传动与控制王成龙,王亮 (2-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
           <t>机械原理杨通 (7-17单周) 机械设计制造及其自动化2020-2-3</t>
@@ -2225,11 +2239,7 @@
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>机械设备故障诊断技术基础胡效东,孙爱芹 (6-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
           <t>机械原理杨通 (7-17单周) 机械设计制造及其自动化2020-2-3</t>
@@ -2246,11 +2256,7 @@
           <t>机械设计基础（A）陈毕胜 (4-15周) 能源与动力工程2020-1-3</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>液压传动与控制王成龙,王亮 (2-13周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr">
         <is>
           <t>微机原理及应用王宝仁 (4-13周) 机械设计制造及其自动化2020-1-2</t>
@@ -2267,11 +2273,7 @@
         </is>
       </c>
       <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>机械设备故障诊断技术基础胡效东,孙爱芹 (6-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
@@ -2311,11 +2313,7 @@
           <t>机械设计基础鲍怀谦,曹冲振,孙静 (4-9,12-18周) 智能制造工程2020-1-3</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>计算机数控系统武洪恩 (1-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
@@ -2346,11 +2344,7 @@
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>计算机数控系统武洪恩 (1-13周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr">
         <is>
@@ -2401,7 +2395,7 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>化工原理（B）刘迪 (3-13周) 材料化学2019-1-2</t>
+          <t>化工原理（B）刘迪 (4-13周) 材料化学2019-1-2</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2434,17 +2428,13 @@
           <t>计算机在金属材料工程中的应用*李辉平 (7-14周) 金属材料工程2019-3-5</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>工程测量学刘尚国 (1-12周) 测绘工程2019-3</t>
-        </is>
-      </c>
+      <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr">
         <is>
-          <t>化工原理（B）刘迪 (3-13周) 材料化学2019-1-2</t>
+          <t>化工原理（B）刘迪 (4-13周) 材料化学2019-1-2</t>
         </is>
       </c>
       <c r="X18" t="inlineStr"/>
@@ -2520,12 +2510,12 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Python 程序设计刘洪强 (1-9周) 地理信息科学2019-1-3</t>
+          <t>高等数学（A）（2-2）宋治涛 (1-14周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>误差理论与测量平差基础刘国林 (1-8周) 遥感科学与技术2020-3</t>
+          <t>高等数学（A）（2-2）宋治涛 (1-8周) 工程力学2021-1-2班,工业工程2021-1-2</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
@@ -2546,7 +2536,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>土地管理与信息系统李云岭 (1-9周) 地理信息科学2019-1-3</t>
+          <t>土地管理与信息系统李云岭 (1,3-9周) 地理信息科学2019-1-3</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr"/>
@@ -2583,7 +2573,7 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>材料力学（B）赵增辉 (1-11周) 采矿工程2020-1-2</t>
+          <t>材料力学（B）赵增辉 (1,3-11周) 采矿工程2020-1-2</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2688,7 +2678,7 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>流体力学辛林 (6-8周) 安全工程2020-3</t>
+          <t>流体力学陈旭,辛林 (6-8周) 安全工程2020-3-4</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2718,11 +2708,7 @@
           <t>火灾事故调查孔彪 (4-11周) 安全工程2019-1-2</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>流体力学陈旭 (6-13周) 安全工程2020-4</t>
-        </is>
-      </c>
+      <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr">
         <is>
@@ -2837,7 +2823,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>可编程控制器姜雪,王德堂 (1-8周) 机械电子工程2019-1-3</t>
+          <t>可编程控制器姜雪,王德堂 (1,3-8周) 机械电子工程2019-1-3</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -2922,7 +2908,7 @@
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr">
         <is>
-          <t>应用统计学（C）张杰 (1-7周) 物流管理2019-1-2</t>
+          <t>应用统计学（C）张杰 (1,3-7周) 物流管理2019-1-2</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -3047,7 +3033,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>金属材料工程专业英语朱慧灵 (1-8周) 金属材料工程2019-4-5</t>
+          <t>金属材料工程专业英语朱慧灵 (1,3-8周) 金属材料工程2019-4-5</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr"/>
@@ -3095,7 +3081,11 @@
           <t>材料科学基础 (A)曹梅青 (7-11周) 金属材料工程2020-1</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>工程测量学刘尚国 (7周) 测绘工程2019-3</t>
+        </is>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
@@ -3182,7 +3172,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>液压传动与控制杨扬 (1-9周) 机械电子工程2019-5</t>
+          <t>液压传动与控制杨扬 (1,3-9周) 机械电子工程2019-5</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -3195,7 +3185,7 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>金融专业英语闻德美 (1-9周) 金融学2019-1-2</t>
+          <t>金融专业英语闻德美 (1,3-9周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -3270,7 +3260,7 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>化工分离工程高军 (1-9周) 化学工程与工艺2019-1-3</t>
+          <t>化工分离工程高军 (1,3-9周) 化学工程与工艺2019-1-3</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -3288,7 +3278,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>应急与危机心理干预于海明 (1-8周) 安全工程（应急管理方向）2019</t>
+          <t>应急与危机心理干预刘震 (3-8周) 安全工程（应急管理方向）2019</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -3317,7 +3307,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>分析化学陈伟 (1-8周) 应用化学2021-2</t>
+          <t>分析化学陈伟 (1,3-8周) 应用化学2021-2</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
@@ -3418,7 +3408,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>应急与危机心理干预于海明 (1-8周) 安全工程（应急管理方向）2019</t>
+          <t>应急与危机心理干预刘震 (3-8周) 安全工程（应急管理方向）2019</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
@@ -3461,16 +3451,8 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>机械设计叶铁丽 (1-15周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>流体力学陈旭 (6-13周) 安全工程2020-4</t>
-        </is>
-      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -3483,11 +3465,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>机械设计叶铁丽 (1-15周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
           <t>数字摄影测量原理与方法解斐斐 (1-12周) 遥感科学与技术2019-2-3</t>
@@ -3509,11 +3487,7 @@
       </c>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr">
-        <is>
-          <t>机械设计叶铁丽 (1-15周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="inlineStr"/>
       <c r="AD29" t="inlineStr"/>
@@ -3549,7 +3523,7 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>计量经济学（A）陶敏 (1-11周) 国际经济与贸易2019-1-2</t>
+          <t>计量经济学（A）陶敏 (1,3-11周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3576,12 +3550,12 @@
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr">
         <is>
-          <t>银行结算*邢苗 (1-9周) 投资学2019-1-2</t>
+          <t>银行结算*邢苗 (1,3-9周) 投资学2019-1-2</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>绿色物流杨珍花 (1-8周) 物流管理2020-1-2</t>
+          <t>绿色物流杨珍花 (1,3-8周) 物流管理2020-1-2</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr"/>
@@ -3609,11 +3583,7 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>可编程控制器郝妮妮 (6-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
@@ -3635,11 +3605,7 @@
           <t>材料分析测试技术汪静 (1-12周) 材料化学2019-1</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>机械CAD丁淑辉 (1-12周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
@@ -3650,22 +3616,14 @@
       </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>可编程控制器郝妮妮 (6-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr">
         <is>
-          <t>材料分析测试技术汪静 (1-12周) 材料化学2019-1</t>
-        </is>
-      </c>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>机械CAD丁淑辉 (1-12周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+          <t>材料分析测试技术汪静 (1,3-12周) 材料化学2019-1</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr"/>
@@ -3908,7 +3866,7 @@
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr">
         <is>
-          <t>古生物学李守军 (1-8周) 资源勘查工程2020-1-3</t>
+          <t>古生物学李守军 (1,3-8周) 资源勘查工程2020-1-3</t>
         </is>
       </c>
       <c r="X34" t="inlineStr"/>
@@ -4068,7 +4026,7 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>古生物学王平丽 (1-8周) 资源勘查工程2020-1-3</t>
+          <t>古生物学王平丽 (2-8周) 资源勘查工程2020-1-3</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -4152,7 +4110,7 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>概率论与数理统计聂世谦 (1-13周) 金融学2020-1-2班,物流管理2020-1-2</t>
+          <t>概率论与数理统计聂世谦 (1,3-13周) 金融学2020-1-2班,物流管理2020-1-2</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -4236,7 +4194,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>地下工程测量学靳奉祥 (4-15周) 测绘工程2019-1</t>
+          <t>地下工程测量学景冬 (6-7周) 测绘工程2019-1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -4348,11 +4306,7 @@
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>材料成形过程计算机模拟刘杰 (7-9,14-16周) 材料成型及控制工程2019-1</t>
-        </is>
-      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -4374,11 +4328,7 @@
       </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>材料成形过程计算机模拟刘杰 (7-9,14-16周) 材料成型及控制工程2019-1</t>
-        </is>
-      </c>
+      <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr">
         <is>
@@ -4435,7 +4385,7 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>管理学(A)姜秀娟 (1-12周) 大数据管理与应用2021-1-2</t>
+          <t>管理学(A)姜秀娟 (1,3-12周) 大数据管理与应用2021-1-2</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4470,12 +4420,12 @@
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr">
         <is>
-          <t>计量经济学（A）陶敏 (1-11周) 国际经济与贸易2019-1-2</t>
+          <t>计量经济学（A）陶敏 (1,3-11周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>计量经济学(B)姜涛 (1-7周) 会计学2019-1-2</t>
+          <t>计量经济学(B)姜涛 (1,3-7周) 会计学2019-1-2</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr"/>
@@ -4513,7 +4463,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>大地测量学基础张燕 (1-10周) 测绘工程2020-4-5</t>
+          <t>大地测量学基础张燕 (1-7,9-10周) 测绘工程2020-4-5</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -4532,11 +4482,7 @@
         </is>
       </c>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>GNSS测量与数据处理苏醒 (1-9周) 遥感科学与技术2019-2</t>
-        </is>
-      </c>
+      <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
           <t>GNSS测量与数据处理刘智敏 (1-9周) 测绘工程2019-1-3</t>
@@ -4562,11 +4508,7 @@
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr">
-        <is>
-          <t>GNSS测量与数据处理刘智敏 (1-9周) 测绘工程2019-1-3</t>
-        </is>
-      </c>
+      <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr">
         <is>
           <t>GNSS原理与应用独知行 (6-15周) 测绘工程2020-3</t>
@@ -4682,7 +4624,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>危险源辨识与控制刘国明 (6-13周) 安全工程2020-5</t>
+          <t>危险源辨识与控制徐翠翠 (6-13周) 安全工程2020-5</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -4731,10 +4673,14 @@
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>危险源辨识与控制刘国明 (6-13周) 安全工程2020-5</t>
-        </is>
-      </c>
-      <c r="V43" t="inlineStr"/>
+          <t>危险源辨识与控制徐翠翠 (6-13周) 安全工程2020-5</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>流体力学陈旭,辛林 (6-8周) 安全工程2020-3-4</t>
+        </is>
+      </c>
       <c r="W43" t="inlineStr">
         <is>
           <t>水污染控制工程陆洪省 (1-11单周) 环境工程2019-1-2</t>
@@ -4868,7 +4814,7 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>金属热处理工艺学王淑峰 (1-7周) 金属材料工程2019-5</t>
+          <t>金属热处理工艺学王淑峰 (1,3-7周) 金属材料工程2019-5</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -4984,12 +4930,12 @@
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr">
         <is>
-          <t>过程流体机械鲍怀谦,孙静 (1-9周) 过程装备与控制工程2019-1-2</t>
+          <t>过程流体机械鲍怀谦,孙静 (1,3-9周) 过程装备与控制工程2019-1-2</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>机械设计(A)高丽 (1-9,14周) 材料成型及控制工程2019-1</t>
+          <t>机械设计(A)高丽 (1,3-9,14周) 材料成型及控制工程2019-1</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
@@ -5236,7 +5182,7 @@
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr">
         <is>
-          <t>高分子专业外语刘欣 (2-10周) 高分子材料与工程2019-1-2</t>
+          <t>高分子专业外语刘欣 (3-10周) 高分子材料与工程2019-1-2</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr"/>
@@ -5349,7 +5295,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>材料分析测试技术吴杰 (7-12周) 金属材料工程2019-1</t>
+          <t>材料分析测试技术迟静 (7-12周) 金属材料工程2019-1</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -5375,7 +5321,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>材料腐蚀与防护岳丽杰 (1-9周) 金属材料工程2019-3-4</t>
+          <t>材料腐蚀与防护岳丽杰 (1,3-9周) 金属材料工程2019-3-4</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -5392,7 +5338,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>材料分析测试技术吴杰 (7-12周) 金属材料工程2019-1</t>
+          <t>材料分析测试技术迟静 (7-12周) 金属材料工程2019-1</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -5418,7 +5364,7 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>材料科学基础（B）丁建旭 (1-8周) 新能源材料与器件2020-1</t>
+          <t>材料科学基础（B）丁建旭 (1,3-8周) 新能源材料与器件2020-1</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr"/>
@@ -5464,11 +5410,7 @@
           <t>安全管理学李威君 (6-8周) 安全工程2020-1-2</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Python程序设计施剑 (7-14周) 测绘工程2020-1-5</t>
-        </is>
-      </c>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
           <t>误差理论与测量平差基础石波 (1-12周) 测绘工程2020-4-5</t>
@@ -5494,16 +5436,8 @@
       </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>Python程序设计施剑 (7-14周) 测绘工程2020-1-5</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>流体力学辛林 (6-13周) 安全工程2020-3</t>
-        </is>
-      </c>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr">
         <is>
           <t>井巷工程蒋邦友 (7-16周) 采矿工程2020-5</t>
@@ -5541,7 +5475,11 @@
           <t>误差理论与测量平差基础石波 (1-12周) 测绘工程2020-4-5</t>
         </is>
       </c>
-      <c r="AB52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>新产品开发流程及就业指导苗永平 (1-8周) 临班199</t>
+        </is>
+      </c>
       <c r="AC52" t="inlineStr"/>
       <c r="AD52" t="inlineStr"/>
       <c r="AE52" t="inlineStr"/>
@@ -5580,7 +5518,7 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>海洋生物技术李慧娟 (1-8周) 生物工程2019-1-2</t>
+          <t>海洋生物技术李慧娟 (1,3-8周) 生物工程2019-1-2</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -5620,7 +5558,7 @@
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>煤化工工艺学梁鹏 (1-8周) 化学工程与工艺2019-1-3</t>
+          <t>煤化工工艺学梁鹏 (1-5,7-8周) 化学工程与工艺2019-1-3</t>
         </is>
       </c>
       <c r="U53" t="inlineStr"/>
@@ -5628,7 +5566,7 @@
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr">
         <is>
-          <t>海洋生物技术李慧娟 (1-8周) 生物工程2019-1-2</t>
+          <t>海洋生物技术李慧娟 (1,3-8周) 生物工程2019-1-2</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
@@ -5678,7 +5616,7 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>质量管理与可靠性孙友霞 (2-8周) 工业工程2019-1-2</t>
+          <t>质量管理与可靠性孙友霞 (3-8周) 工业工程2019-1-2</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -5762,12 +5700,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>汽轮机原理李志敏 (1-9周) 能源与动力工程2019-1-3</t>
+          <t>汽轮机原理李志敏 (1,3-9周) 能源与动力工程2019-1-3</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>普通化学赵媛媛 (1-8周) 能源与动力工程2019-1-3</t>
+          <t>普通化学赵媛媛 (1,3-8周) 能源与动力工程2019-1-3</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -5910,7 +5848,7 @@
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>数控技术于涛 (1-7周) 机械设计制造及其自动化2019-3-5</t>
+          <t>数控技术于涛 (1-5,7周) 机械设计制造及其自动化2019-3-5</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
@@ -6012,7 +5950,7 @@
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr">
         <is>
-          <t>计量经济学（A）武传宝 (1-10周) 投资学2019-1-2</t>
+          <t>计量经济学（A）武传宝 (1,3-10周) 投资学2019-1-2</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr"/>
@@ -6380,7 +6318,7 @@
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr">
         <is>
-          <t>普通化学（A）高猛 (1-8周) 环境工程2021-3</t>
+          <t>普通化学（A）高猛 (1,3-8周) 环境工程2021-3</t>
         </is>
       </c>
       <c r="X62" t="inlineStr">
@@ -6512,7 +6450,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>金属材料工程专业英语吴楠楠 (1-8周) 金属材料工程2019-1</t>
+          <t>金属材料工程专业英语吴楠楠 (1,3-8周) 金属材料工程2019-1</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -6634,11 +6572,7 @@
           <t>J14-428室</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>数据挖掘刘彤 (7-14周) 采矿工程（智能开采方向）2019-1-2</t>
-        </is>
-      </c>
+      <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
           <t>材料分析测试技术汪静 (1-12周) 材料化学2019-2</t>
@@ -6741,11 +6675,7 @@
           <t>误差理论与测量平差基础陶秋香 (1-12周) 测绘工程2020-1-2</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>大地测量学基础郭英 (1-10周) 测绘工程2020-1</t>
-        </is>
-      </c>
+      <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
           <t>海洋科学导论朱金山 (7-8周) 测绘工程2020-1-5</t>
@@ -6787,11 +6717,7 @@
       </c>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>大地测量学基础郭英 (1-10周) 测绘工程2020-1</t>
-        </is>
-      </c>
+      <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr">
         <is>
           <t>误差理论与测量平差基础陶秋香 (1-12周) 测绘工程2020-1-2</t>
@@ -6870,7 +6796,7 @@
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>高分子专业外语刘欣 (2-10周) 高分子材料与工程2019-3-4</t>
+          <t>高分子专业外语程桂青 (4-10周) 高分子材料与工程2019-3-4</t>
         </is>
       </c>
       <c r="T68" t="inlineStr"/>
@@ -6878,7 +6804,7 @@
       <c r="V68" t="inlineStr"/>
       <c r="W68" t="inlineStr">
         <is>
-          <t>普通化学（A）崔立强 (1-8周) 环境工程2021-1-2</t>
+          <t>普通化学（A）崔立强 (1,3-8周) 环境工程2021-1-2</t>
         </is>
       </c>
       <c r="X68" t="inlineStr"/>
@@ -7044,7 +6970,7 @@
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>化工安全与环保徐冬梅 (1-8周) 化学工程与工艺2019-3</t>
+          <t>化工安全与环保徐冬梅 (1,3-8周) 化学工程与工艺2019-3</t>
         </is>
       </c>
       <c r="T70" t="inlineStr"/>
@@ -7086,7 +7012,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>高分子专业外语刘欣 (2-10周) 高分子材料与工程2019-3-4</t>
+          <t>高分子专业外语程桂青 (4-10周) 高分子材料与工程2019-3-4</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -7101,11 +7027,7 @@
           <t>误差理论与测量平差基础许军 (1-12周) 测绘工程2020-3</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>大地测量学基础韩晓冬 (1-10周) 测绘工程2020-2</t>
-        </is>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
@@ -7123,11 +7045,7 @@
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>大地测量学基础韩晓冬 (1-10周) 测绘工程2020-2</t>
-        </is>
-      </c>
+      <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr">
         <is>
           <t>误差理论与测量平差基础许军 (1-12周) 测绘工程2020-3</t>
@@ -7135,14 +7053,10 @@
       </c>
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr">
-        <is>
-          <t>GNSS测量与数据处理崔健慧 (6-9周) 遥感科学与技术2019-3</t>
-        </is>
-      </c>
+      <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr">
         <is>
-          <t>微波遥感王志勇 (1-9周) 遥感科学与技术2019-1-3</t>
+          <t>微波遥感王志勇 (1,3-9周) 遥感科学与技术2019-1-3</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
@@ -7276,12 +7190,12 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>有机化学黄小文 (1-16周) 材料化学2020-2</t>
+          <t>有机化学黄小文 (1,3-16周) 材料化学2020-2</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>金属材料工程专业英语白雪 (1-8周) 金属材料工程2019-2</t>
+          <t>金属材料工程专业英语白雪 (1,3-8周) 金属材料工程2019-2</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -7320,7 +7234,7 @@
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>金属热处理工艺学孙金全 (1-7周) 金属材料工程2019-1-2</t>
+          <t>金属热处理工艺学孙金全 (1,3-7周) 金属材料工程2019-1-2</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr"/>
@@ -7365,7 +7279,7 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>数据挖掘张福平 (1-9周) 电子商务2019-1</t>
+          <t>数据挖掘张福平 (1,3-9周) 电子商务2019-1</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -7512,7 +7426,7 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>汽车理论李玉善 (1-10周) 车辆工程2019-1</t>
+          <t>汽车理论李玉善 (1-4,6-10周) 车辆工程2019-1</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -7562,23 +7476,23 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>J14-517室</t>
+          <t>J14-510室</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>安全系统工程陈海燕 (6-9周) 安全工程2020-5</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>景观设计（二）仇同文 (7周) 环境设计2019-2</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>景观设计（二）仇同文 (7周) 环境设计2019-2</t>
+        </is>
+      </c>
       <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>物理性污染控制工程王金凤 (7-15周) 环境工程2019-1-3</t>
-        </is>
-      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -7589,11 +7503,7 @@
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>物理性污染控制工程王金凤 (7-15周) 环境工程2019-1-3</t>
-        </is>
-      </c>
+      <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr"/>
@@ -7619,71 +7529,43 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>J14-512室</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>人体工学刘燕 (5-7周) 环境设计2020-1</t>
-        </is>
-      </c>
+          <t>J14-517室</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>人体工学刘燕 (5-7周) 环境设计2020-1</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>人体工学许士朋 (5-7周) 环境设计2020-2</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>人体工学许士朋 (5-7周) 环境设计2020-2</t>
-        </is>
-      </c>
+          <t>安全系统工程陈海燕 (6-9周) 安全工程2020-5</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>物理性污染控制工程王金凤 (7-15周) 环境工程2019-1-3</t>
+        </is>
+      </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>人体工学刘燕 (6-7周) 环境设计2020-1</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>人体工学刘燕 (6-7周) 环境设计2020-1</t>
-        </is>
-      </c>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>人体工学许士朋 (5-7周) 环境设计2020-2</t>
-        </is>
-      </c>
+      <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr">
         <is>
-          <t>人体工学许士朋 (5-7周) 环境设计2020-2</t>
+          <t>物理性污染控制工程王金凤 (7-15周) 环境工程2019-1-3</t>
         </is>
       </c>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr">
-        <is>
-          <t>人体工学刘燕 (5-7周) 环境设计2020-1</t>
-        </is>
-      </c>
-      <c r="X78" t="inlineStr">
-        <is>
-          <t>人体工学刘燕 (5-7周) 环境设计2020-1</t>
-        </is>
-      </c>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr"/>
       <c r="AA78" t="inlineStr"/>
@@ -7704,43 +7586,71 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>J14-523室</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
+          <t>J14-512室</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>人体工学刘燕 (5-7周) 环境设计2020-1</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>材料科学基础 (A)曹梅青 (7-11周) 金属材料工程2020-2</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
+          <t>人体工学刘燕 (5-7周) 环境设计2020-1</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>人体工学许士朋 (5-7周) 环境设计2020-2</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>人体工学许士朋 (5-7周) 环境设计2020-2</t>
+        </is>
+      </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>人体工学刘燕 (6-7周) 环境设计2020-1</t>
+        </is>
+      </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>材料科学基础 (A)曹梅青 (7-11周) 金属材料工程2020-2</t>
+          <t>人体工学刘燕 (6-7周) 环境设计2020-1</t>
         </is>
       </c>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr">
-        <is>
-          <t>材料科学基础 (A)曹梅青 (7-11周) 金属材料工程2020-2</t>
-        </is>
-      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>人体工学许士朋 (5-7周) 环境设计2020-2</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>人体工学许士朋 (5-7周) 环境设计2020-2</t>
+        </is>
+      </c>
+      <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>人体工学刘燕 (5-7周) 环境设计2020-1</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>人体工学刘燕 (5-7周) 环境设计2020-1</t>
+        </is>
+      </c>
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr"/>
       <c r="AA79" t="inlineStr"/>
@@ -7764,16 +7674,8 @@
           <t>J14-514室</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>景观设计（二）仇同文 (6-9周) 环境设计2019-2</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>景观设计（二）仇同文 (6-9周) 环境设计2019-2</t>
-        </is>
-      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
           <t>景观设计（二）李晓君 (6-9周) 环境设计2019-1</t>
@@ -8100,7 +8002,7 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>空间大地测量学基础孔巧丽 (1-9周) 测绘工程2019-1-2</t>
+          <t>空间大地测量学基础孔巧丽 (1,3-9周) 测绘工程2019-1-2</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -8239,16 +8141,8 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>展示设计蔡颖君 (5-7周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>展示设计蔡颖君 (5-7周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
@@ -8273,26 +8167,10 @@
         </is>
       </c>
       <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr">
-        <is>
-          <t>展示设计蔡颖君 (5-7周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>展示设计蔡颖君 (5-7周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="T86" t="inlineStr">
-        <is>
-          <t>展示设计蔡颖君 (5-7周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="U86" t="inlineStr">
-        <is>
-          <t>展示设计蔡颖君 (5-7周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr"/>
       <c r="V86" t="inlineStr"/>
       <c r="W86" t="inlineStr">
         <is>
@@ -8536,11 +8414,7 @@
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>GNSS测量与数据处理刘智敏 (1-9周) 遥感科学与技术2019-1</t>
-        </is>
-      </c>
+      <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
@@ -8556,16 +8430,8 @@
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>地下工程测量学靳奉祥 (4-15周) 测绘工程2019-1</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>GNSS测量与数据处理刘智敏 (1-9周) 遥感科学与技术2019-1</t>
-        </is>
-      </c>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr"/>
@@ -8583,7 +8449,7 @@
       <c r="U90" t="inlineStr"/>
       <c r="V90" t="inlineStr">
         <is>
-          <t>地下工程测量学景冬 (4-15周) 测绘工程2019-3</t>
+          <t>地下工程测量学景冬 (4-15周) 测绘工程2019-3 地下工程测量学景冬 (6-7周) 测绘工程2019-1</t>
         </is>
       </c>
       <c r="W90" t="inlineStr"/>
@@ -8695,15 +8561,23 @@
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
         <is>
-          <t>工程测量学常乐 (1-12周) 测绘工程2019-2</t>
+          <t>工程测量学常乐 (1-7,9-12周) 测绘工程2019-2</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-2)陈昕 (1-16周) 资源勘查工程2021-1</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-2)陈昕 (1-16周) 电子信息科学与技术2021-1</t>
+        </is>
+      </c>
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr"/>
@@ -8880,11 +8754,7 @@
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>工程测量学于胜文 (1-12周) 测绘工程2019-1</t>
-        </is>
-      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
